--- a/data/trans_dic/P78A_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,86; 96,56</t>
+          <t>63,1; 96,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,46; 100,0</t>
+          <t>68,65; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,72; 96,62</t>
+          <t>72,18; 96,82</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,63; 100,0</t>
+          <t>64,35; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,63; 95,1</t>
+          <t>65,0; 95,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,18; 95,31</t>
+          <t>71,89; 95,56</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,0; 89,38</t>
+          <t>22,08; 90,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,94; 99,31</t>
+          <t>76,94; 99,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,36; 94,77</t>
+          <t>70,73; 93,28</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,96; 83,6</t>
+          <t>39,54; 83,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,37; 83,81</t>
+          <t>59,8; 83,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,27; 80,0</t>
+          <t>59,68; 79,52</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,49; 90,15</t>
+          <t>18,68; 90,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,95; 95,86</t>
+          <t>87,63; 95,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,01; 94,14</t>
+          <t>85,34; 94,35</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,33; 93,52</t>
+          <t>48,97; 93,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,25; 93,35</t>
+          <t>82,68; 93,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,42; 93,59</t>
+          <t>82,49; 93,08</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>67,64; 86,55</t>
+          <t>67,63; 86,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,13; 92,29</t>
+          <t>84,33; 92,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83,2; 90,51</t>
+          <t>83,13; 90,71</t>
         </is>
       </c>
     </row>
